--- a/src/com.gyt.ms/Content/templates/lng导入模板.xlsx
+++ b/src/com.gyt.ms/Content/templates/lng导入模板.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>公司名称</t>
   </si>
@@ -204,6 +204,10 @@
   </si>
   <si>
     <t>已补贴</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>补贴日期</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -798,8 +802,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,19 +1179,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1204,6 +1212,9 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1215,19 +1226,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1247,10 +1259,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1266,11 +1281,14 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1">
+        <v>42948</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1286,11 +1304,14 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1">
+        <v>42949</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1306,11 +1327,14 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1">
+        <v>42950</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1326,11 +1350,14 @@
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1">
+        <v>42951</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1346,11 +1373,14 @@
       <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1">
+        <v>42952</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1366,11 +1396,14 @@
       <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1">
+        <v>42953</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1386,11 +1419,14 @@
       <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1">
+        <v>42954</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1406,11 +1442,14 @@
       <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1">
+        <v>42955</v>
+      </c>
+      <c r="H9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1426,11 +1465,14 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1">
+        <v>42956</v>
+      </c>
+      <c r="H10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1446,11 +1488,14 @@
       <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1">
+        <v>42957</v>
+      </c>
+      <c r="H11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1466,11 +1511,14 @@
       <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1">
+        <v>42958</v>
+      </c>
+      <c r="H12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1486,11 +1534,14 @@
       <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1">
+        <v>42959</v>
+      </c>
+      <c r="H13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1506,11 +1557,14 @@
       <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1">
+        <v>42960</v>
+      </c>
+      <c r="H14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1526,11 +1580,14 @@
       <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1">
+        <v>42961</v>
+      </c>
+      <c r="H15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1546,11 +1603,14 @@
       <c r="F16" t="s">
         <v>55</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1">
+        <v>42962</v>
+      </c>
+      <c r="H16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1566,11 +1626,14 @@
       <c r="F17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1">
+        <v>42963</v>
+      </c>
+      <c r="H17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1586,7 +1649,10 @@
       <c r="F18" t="s">
         <v>61</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1">
+        <v>42964</v>
+      </c>
+      <c r="H18" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/com.gyt.ms/Content/templates/lng导入模板.xlsx
+++ b/src/com.gyt.ms/Content/templates/lng导入模板.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GithubRepository\JaapYang_Local_Gyt_Sprint3\src\com.gyt.ms\Content\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7830"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lng导入测试数据" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>公司名称</t>
   </si>
@@ -208,6 +213,10 @@
   </si>
   <si>
     <t>补贴日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别说明：红色字段为必填</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +382,21 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -802,33 +826,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -843,15 +882,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -888,12 +927,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -935,7 +977,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -970,7 +1012,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1181,18 +1223,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1226,46 +1268,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1311,7 +1353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1333,8 +1375,13 @@
       <c r="H4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1356,8 +1403,11 @@
       <c r="H5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1379,8 +1429,11 @@
       <c r="H6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1402,8 +1455,11 @@
       <c r="H7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1425,8 +1481,11 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1448,8 +1507,11 @@
       <c r="H9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1472,7 +1534,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1495,7 +1557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1518,7 +1580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1541,7 +1603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1564,7 +1626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1587,7 +1649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1610,7 +1672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1633,7 +1695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1657,7 +1719,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J4:L9"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/com.gyt.ms/Content/templates/lng导入模板.xlsx
+++ b/src/com.gyt.ms/Content/templates/lng导入模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GithubRepository\JaapYang_Local_Gyt_Sprint3\src\com.gyt.ms\Content\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GithubRepository\JaapYang_Local_Gyt_Sprint4\src\com.gyt.ms\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="lng导入测试数据" sheetId="1" r:id="rId1"/>
@@ -212,11 +212,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>补贴日期</t>
+    <t>特别说明：红色字段为必填</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>特别说明：红色字段为必填</t>
+    <t>登记日期</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -839,13 +839,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1254,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1270,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1297,11 +1297,11 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -1375,11 +1375,11 @@
       <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="J4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
@@ -1403,9 +1403,9 @@
       <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
@@ -1429,9 +1429,9 @@
       <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
@@ -1455,9 +1455,9 @@
       <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
@@ -1481,9 +1481,9 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
@@ -1507,9 +1507,9 @@
       <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">

--- a/src/com.gyt.ms/Content/templates/lng导入模板.xlsx
+++ b/src/com.gyt.ms/Content/templates/lng导入模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GithubRepository\JaapYang_Local_Gyt_Sprint4\src\com.gyt.ms\Content\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gyt_publish\wwwroot\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7830"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lng导入测试数据" sheetId="1" r:id="rId1"/>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1270,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1291,7 +1291,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1300,7 +1300,7 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H1" s="3" t="s">

--- a/src/com.gyt.ms/Content/templates/lng导入模板.xlsx
+++ b/src/com.gyt.ms/Content/templates/lng导入模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gyt_publish\wwwroot\Content\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GithubRepository\JaapYang_Local_Gyt_Sprint4\src\com.gyt.ms\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="lng导入测试数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>公司名称</t>
   </si>
@@ -217,6 +217,10 @@
   </si>
   <si>
     <t>登记日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1221,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1234,7 +1238,7 @@
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1258,6 +1262,9 @@
       </c>
       <c r="H1" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1270,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1306,6 +1313,9 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
